--- a/data_results/resultados_otimista_pyomo.xlsx
+++ b/data_results/resultados_otimista_pyomo.xlsx
@@ -525,7 +525,7 @@
         <v>1.42832728</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00074172</v>
+        <v>0.0006749599999999999</v>
       </c>
     </row>
   </sheetData>
